--- a/part_A.xlsx
+++ b/part_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiago/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhild\Desktop\EPFL_progs\IntroFin\IF-case1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B221BB-9A89-2147-83C3-8B782F0762D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C68AC9-C0DF-47EB-8EDD-51E7D0BB5CE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="500" windowWidth="26200" windowHeight="19600" xr2:uid="{83F0B71E-83C5-FB4C-BC89-723A38B8AFA2}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{83F0B71E-83C5-FB4C-BC89-723A38B8AFA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Year</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Free Cash Flow</t>
   </si>
   <si>
-    <t>PV</t>
-  </si>
-  <si>
     <t>Taxes</t>
   </si>
   <si>
@@ -70,6 +67,21 @@
   </si>
   <si>
     <t>Net Working Capital</t>
+  </si>
+  <si>
+    <t>NWC</t>
+  </si>
+  <si>
+    <t>delta NWC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PART B </t>
+  </si>
+  <si>
+    <t>Revenues</t>
+  </si>
+  <si>
+    <t>delta Rev</t>
   </si>
 </sst>
 </file>
@@ -93,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -207,11 +219,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -224,9 +305,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -242,7 +332,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -538,23 +628,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B60BD62-163A-054D-A192-BB8876BE4E5C}">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
-    <col min="17" max="17" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.84765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6484375" customWidth="1"/>
+    <col min="17" max="17" width="17.6484375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.5" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" customWidth="1"/>
+    <col min="19" max="19" width="12.6484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -601,7 +691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -649,9 +739,9 @@
       </c>
       <c r="R2" s="6"/>
     </row>
-    <row r="3" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="8">
         <v>0.19</v>
@@ -697,7 +787,7 @@
       </c>
       <c r="R3" s="6"/>
     </row>
-    <row r="4" spans="1:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -758,33 +848,33 @@
         <v>13.11</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>48.07</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <f>B6-B7</f>
         <v>-16.330000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="10" spans="1:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -831,7 +921,7 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -839,59 +929,59 @@
         <v>3.3</v>
       </c>
       <c r="C11" s="1">
-        <f>$B11*(1.04^C1)</f>
+        <f t="shared" ref="C11:O11" si="1">$B11*(1.04^C1)</f>
         <v>3.4319999999999999</v>
       </c>
       <c r="D11" s="1">
-        <f>$B11*(1.04^D1)</f>
+        <f t="shared" si="1"/>
         <v>3.56928</v>
       </c>
       <c r="E11" s="1">
-        <f>$B11*(1.04^E1)</f>
+        <f t="shared" si="1"/>
         <v>3.7120511999999999</v>
       </c>
       <c r="F11" s="1">
-        <f>$B11*(1.04^F1)</f>
+        <f t="shared" si="1"/>
         <v>3.8605332480000003</v>
       </c>
       <c r="G11" s="1">
-        <f>$B11*(1.04^G1)</f>
+        <f t="shared" si="1"/>
         <v>4.0149545779200011</v>
       </c>
       <c r="H11" s="1">
-        <f>$B11*(1.04^H1)</f>
+        <f t="shared" si="1"/>
         <v>4.1755527610368013</v>
       </c>
       <c r="I11" s="1">
-        <f>$B11*(1.04^I1)</f>
+        <f t="shared" si="1"/>
         <v>4.3425748714782726</v>
       </c>
       <c r="J11" s="1">
-        <f>$B11*(1.04^J1)</f>
+        <f t="shared" si="1"/>
         <v>4.5162778663374041</v>
       </c>
       <c r="K11" s="1">
-        <f>$B11*(1.04^K1)</f>
+        <f t="shared" si="1"/>
         <v>4.6969289809909007</v>
       </c>
       <c r="L11" s="1">
-        <f>$B11*(1.04^L1)</f>
+        <f t="shared" si="1"/>
         <v>4.8848061402305367</v>
       </c>
       <c r="M11" s="1">
-        <f>$B11*(1.04^M1)</f>
+        <f t="shared" si="1"/>
         <v>5.0801983858397577</v>
       </c>
       <c r="N11" s="1">
-        <f>$B11*(1.04^N1)</f>
+        <f t="shared" si="1"/>
         <v>5.2834063212733495</v>
       </c>
       <c r="O11" s="1">
-        <f>$B11*(1.04^O1)</f>
+        <f t="shared" si="1"/>
         <v>5.4947425741242837</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -938,68 +1028,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="2">
-        <f>B4+B10-B11-B12</f>
+        <f t="shared" ref="B13:O13" si="2">B4+B10-B11-B12</f>
         <v>1.5100000000000007</v>
       </c>
       <c r="C13" s="1">
-        <f>C4+C10-C11-C12</f>
+        <f t="shared" si="2"/>
         <v>2.0380000000000007</v>
       </c>
       <c r="D13" s="1">
-        <f>D4+D10-D11-D12</f>
+        <f t="shared" si="2"/>
         <v>2.6007199999999999</v>
       </c>
       <c r="E13" s="1">
-        <f>E4+E10-E11-E12</f>
+        <f t="shared" si="2"/>
         <v>3.1979488000000003</v>
       </c>
       <c r="F13" s="1">
-        <f>F4+F10-F11-F12</f>
+        <f t="shared" si="2"/>
         <v>3.8594667520000003</v>
       </c>
       <c r="G13" s="1">
-        <f>G4+G10-G11-G12</f>
+        <f t="shared" si="2"/>
         <v>4.5750454220799988</v>
       </c>
       <c r="H13" s="1">
-        <f>H4+H10-H11-H12</f>
+        <f t="shared" si="2"/>
         <v>5.3044472389631974</v>
       </c>
       <c r="I13" s="1">
-        <f>I4+I10-I11-I12</f>
+        <f t="shared" si="2"/>
         <v>6.1174251285217283</v>
       </c>
       <c r="J13" s="1">
-        <f>J4+J10-J11-J12</f>
+        <f t="shared" si="2"/>
         <v>6.9637221336625945</v>
       </c>
       <c r="K13" s="1">
-        <f>K4+K10-K11-K12</f>
+        <f t="shared" si="2"/>
         <v>7.863071019009098</v>
       </c>
       <c r="L13" s="1">
-        <f>L4+L10-L11-L12</f>
+        <f t="shared" si="2"/>
         <v>8.6751938597694611</v>
       </c>
       <c r="M13" s="1">
-        <f>M4+M10-M11-M12</f>
+        <f t="shared" si="2"/>
         <v>9.8098016141602429</v>
       </c>
       <c r="N13" s="1">
-        <f>N4+N10-N11-N12</f>
+        <f t="shared" si="2"/>
         <v>10.836593678726651</v>
       </c>
       <c r="O13" s="1">
-        <f>O4+O10-O11-O12</f>
+        <f t="shared" si="2"/>
         <v>11.275257425875715</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1014,8 +1104,10 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.6">
+      <c r="A16" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1029,42 +1121,251 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>7</v>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="13">
+        <v>84.2</v>
+      </c>
+      <c r="C17" s="13">
+        <v>91.78</v>
+      </c>
+      <c r="D17" s="13">
+        <v>100.038</v>
+      </c>
+      <c r="E17" s="13">
+        <v>109.02800000000001</v>
+      </c>
+      <c r="F17" s="13">
+        <v>118.846</v>
+      </c>
+      <c r="G17" s="13">
+        <v>129.55000000000001</v>
+      </c>
+      <c r="H17" s="13">
+        <v>141.208</v>
+      </c>
+      <c r="I17" s="13">
+        <v>153.92400000000001</v>
+      </c>
+      <c r="J17" s="13">
+        <v>167.774</v>
+      </c>
+      <c r="K17" s="13">
+        <v>182.86600000000001</v>
+      </c>
+      <c r="L17" s="13">
+        <v>199.33</v>
+      </c>
+      <c r="M17" s="13">
+        <v>217.27199999999999</v>
+      </c>
+      <c r="N17" s="14">
+        <v>236.828</v>
+      </c>
+      <c r="O17" s="4">
+        <v>246.30600000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="16">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="16">
+        <f>C17/B17</f>
+        <v>1.090023752969121</v>
+      </c>
+      <c r="D18" s="16">
+        <f>D17/C17</f>
+        <v>1.0899760296360863</v>
+      </c>
+      <c r="E18" s="16">
+        <f>E17/D17</f>
+        <v>1.089865850976629</v>
+      </c>
+      <c r="F18" s="16">
+        <f>F17/E17</f>
+        <v>1.0900502623179367</v>
+      </c>
+      <c r="G18" s="16">
+        <f>G17/F17</f>
+        <v>1.0900661360079431</v>
+      </c>
+      <c r="H18" s="16">
+        <f>H17/G17</f>
+        <v>1.089988421458896</v>
+      </c>
+      <c r="I18" s="16">
+        <f>I17/H17</f>
+        <v>1.0900515551526826</v>
+      </c>
+      <c r="J18" s="16">
+        <f>J17/I17</f>
+        <v>1.0899794703879837</v>
+      </c>
+      <c r="K18" s="16">
+        <f>K17/J17</f>
+        <v>1.0899543433428303</v>
+      </c>
+      <c r="L18" s="16">
+        <f>L17/K17</f>
+        <v>1.0900331390198288</v>
+      </c>
+      <c r="M18" s="16">
+        <f>M17/L17</f>
+        <v>1.0900115386544924</v>
+      </c>
+      <c r="N18" s="16">
+        <f>N17/M17</f>
+        <v>1.0900069958393166</v>
+      </c>
+      <c r="O18" s="17">
+        <f>O17/N17</f>
+        <v>1.0400206056716268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="17"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="16">
+        <v>-16.329999999999998</v>
+      </c>
+      <c r="C20" s="16">
+        <f>$B$20*C18</f>
+        <v>-17.800087885985743</v>
+      </c>
+      <c r="D20" s="16">
+        <f>$B$20*D18</f>
+        <v>-17.799308563957286</v>
+      </c>
+      <c r="E20" s="16">
+        <f>$B$20*E18</f>
+        <v>-17.797509346448351</v>
+      </c>
+      <c r="F20" s="16">
+        <f>$B$20*F18</f>
+        <v>-17.800520783651905</v>
+      </c>
+      <c r="G20" s="16">
+        <f>$B$20*G18</f>
+        <v>-17.800780001009709</v>
+      </c>
+      <c r="H20" s="16">
+        <f>$B$20*H18</f>
+        <v>-17.799510922423771</v>
+      </c>
+      <c r="I20" s="16">
+        <f>$B$20*I18</f>
+        <v>-17.800541895643306</v>
+      </c>
+      <c r="J20" s="16">
+        <f>$B$20*J18</f>
+        <v>-17.799364751435771</v>
+      </c>
+      <c r="K20" s="16">
+        <f>$B$20*K18</f>
+        <v>-17.798954426788416</v>
+      </c>
+      <c r="L20" s="16">
+        <f>$B$20*L18</f>
+        <v>-17.800241160193803</v>
+      </c>
+      <c r="M20" s="16">
+        <f>$B$20*M18</f>
+        <v>-17.799888426227859</v>
+      </c>
+      <c r="N20" s="16">
+        <f>$B$20*N18</f>
+        <v>-17.799814242056037</v>
+      </c>
+      <c r="O20" s="17">
+        <f>$B$20*O18</f>
+        <v>-16.983536490617663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A21" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19">
+        <f>C20-B20</f>
+        <v>-1.4700878859857447</v>
+      </c>
+      <c r="D21" s="19">
+        <f t="shared" ref="D21:O21" si="3">D20-C20</f>
+        <v>7.793220284568747E-4</v>
+      </c>
+      <c r="E21" s="19">
+        <f t="shared" si="3"/>
+        <v>1.7992175089354134E-3</v>
+      </c>
+      <c r="F21" s="19">
+        <f t="shared" si="3"/>
+        <v>-3.0114372035541237E-3</v>
+      </c>
+      <c r="G21" s="19">
+        <f t="shared" si="3"/>
+        <v>-2.59217357804431E-4</v>
+      </c>
+      <c r="H21" s="19">
+        <f t="shared" si="3"/>
+        <v>1.269078585938388E-3</v>
+      </c>
+      <c r="I21" s="19">
+        <f t="shared" si="3"/>
+        <v>-1.0309732195352694E-3</v>
+      </c>
+      <c r="J21" s="19">
+        <f t="shared" si="3"/>
+        <v>1.177144207535008E-3</v>
+      </c>
+      <c r="K21" s="19">
+        <f t="shared" si="3"/>
+        <v>4.1032464735479834E-4</v>
+      </c>
+      <c r="L21" s="19">
+        <f t="shared" si="3"/>
+        <v>-1.286733405386542E-3</v>
+      </c>
+      <c r="M21" s="19">
+        <f t="shared" si="3"/>
+        <v>3.5273396594348583E-4</v>
+      </c>
+      <c r="N21" s="19">
+        <f t="shared" si="3"/>
+        <v>7.4184171822366807E-5</v>
+      </c>
+      <c r="O21" s="20">
+        <f t="shared" si="3"/>
+        <v>0.81627775143837411</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/part_A.xlsx
+++ b/part_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhild\Desktop\EPFL_progs\IntroFin\IF-case1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C68AC9-C0DF-47EB-8EDD-51E7D0BB5CE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669958EF-7AF0-4E1E-A5E1-E1302CFECEC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{83F0B71E-83C5-FB4C-BC89-723A38B8AFA2}"/>
   </bookViews>
@@ -631,7 +631,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1177,55 +1177,55 @@
         <v>1</v>
       </c>
       <c r="C18" s="16">
-        <f>C17/B17</f>
+        <f t="shared" ref="C18:O18" si="3">C17/B17</f>
         <v>1.090023752969121</v>
       </c>
       <c r="D18" s="16">
-        <f>D17/C17</f>
+        <f t="shared" si="3"/>
         <v>1.0899760296360863</v>
       </c>
       <c r="E18" s="16">
-        <f>E17/D17</f>
+        <f t="shared" si="3"/>
         <v>1.089865850976629</v>
       </c>
       <c r="F18" s="16">
-        <f>F17/E17</f>
+        <f t="shared" si="3"/>
         <v>1.0900502623179367</v>
       </c>
       <c r="G18" s="16">
-        <f>G17/F17</f>
+        <f t="shared" si="3"/>
         <v>1.0900661360079431</v>
       </c>
       <c r="H18" s="16">
-        <f>H17/G17</f>
+        <f t="shared" si="3"/>
         <v>1.089988421458896</v>
       </c>
       <c r="I18" s="16">
-        <f>I17/H17</f>
+        <f t="shared" si="3"/>
         <v>1.0900515551526826</v>
       </c>
       <c r="J18" s="16">
-        <f>J17/I17</f>
+        <f t="shared" si="3"/>
         <v>1.0899794703879837</v>
       </c>
       <c r="K18" s="16">
-        <f>K17/J17</f>
+        <f t="shared" si="3"/>
         <v>1.0899543433428303</v>
       </c>
       <c r="L18" s="16">
-        <f>L17/K17</f>
+        <f t="shared" si="3"/>
         <v>1.0900331390198288</v>
       </c>
       <c r="M18" s="16">
-        <f>M17/L17</f>
+        <f t="shared" si="3"/>
         <v>1.0900115386544924</v>
       </c>
       <c r="N18" s="16">
-        <f>N17/M17</f>
+        <f t="shared" si="3"/>
         <v>1.0900069958393166</v>
       </c>
       <c r="O18" s="17">
-        <f>O17/N17</f>
+        <f t="shared" si="3"/>
         <v>1.0400206056716268</v>
       </c>
     </row>
@@ -1254,56 +1254,56 @@
         <v>-16.329999999999998</v>
       </c>
       <c r="C20" s="16">
-        <f>$B$20*C18</f>
+        <f>B20*C18</f>
         <v>-17.800087885985743</v>
       </c>
       <c r="D20" s="16">
-        <f>$B$20*D18</f>
-        <v>-17.799308563957286</v>
+        <f t="shared" ref="D20:O20" si="4">C20*D18</f>
+        <v>-19.401669121140138</v>
       </c>
       <c r="E20" s="16">
-        <f>$B$20*E18</f>
-        <v>-17.797509346448351</v>
+        <f t="shared" si="4"/>
+        <v>-21.145216627078383</v>
       </c>
       <c r="F20" s="16">
-        <f>$B$20*F18</f>
-        <v>-17.800520783651905</v>
+        <f t="shared" si="4"/>
+        <v>-23.049348931116388</v>
       </c>
       <c r="G20" s="16">
-        <f>$B$20*G18</f>
-        <v>-17.800780001009709</v>
+        <f t="shared" si="4"/>
+        <v>-25.125314726840855</v>
       </c>
       <c r="H20" s="16">
-        <f>$B$20*H18</f>
-        <v>-17.799510922423771</v>
+        <f t="shared" si="4"/>
+        <v>-27.386302137767217</v>
       </c>
       <c r="I20" s="16">
-        <f>$B$20*I18</f>
-        <v>-17.800541895643306</v>
+        <f t="shared" si="4"/>
+        <v>-29.852481235154389</v>
       </c>
       <c r="J20" s="16">
-        <f>$B$20*J18</f>
-        <v>-17.799364751435771</v>
+        <f t="shared" si="4"/>
+        <v>-32.538591686460805</v>
       </c>
       <c r="K20" s="16">
-        <f>$B$20*K18</f>
-        <v>-17.798954426788416</v>
+        <f t="shared" si="4"/>
+        <v>-35.46557933491686</v>
       </c>
       <c r="L20" s="16">
-        <f>$B$20*L18</f>
-        <v>-17.800241160193803</v>
+        <f t="shared" si="4"/>
+        <v>-38.658656769596199</v>
       </c>
       <c r="M20" s="16">
-        <f>$B$20*M18</f>
-        <v>-17.799888426227859</v>
+        <f t="shared" si="4"/>
+        <v>-42.138381947743461</v>
       </c>
       <c r="N20" s="16">
-        <f>$B$20*N18</f>
-        <v>-17.799814242056037</v>
-      </c>
-      <c r="O20" s="17">
-        <f>$B$20*O18</f>
-        <v>-16.983536490617663</v>
+        <f t="shared" si="4"/>
+        <v>-45.931131116389544</v>
+      </c>
+      <c r="O20" s="16">
+        <f t="shared" si="4"/>
+        <v>-47.769322802850354</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.6">
@@ -1316,52 +1316,52 @@
         <v>-1.4700878859857447</v>
       </c>
       <c r="D21" s="19">
-        <f t="shared" ref="D21:O21" si="3">D20-C20</f>
-        <v>7.793220284568747E-4</v>
+        <f t="shared" ref="D21:O21" si="5">D20-C20</f>
+        <v>-1.601581235154395</v>
       </c>
       <c r="E21" s="19">
-        <f t="shared" si="3"/>
-        <v>1.7992175089354134E-3</v>
+        <f t="shared" si="5"/>
+        <v>-1.7435475059382455</v>
       </c>
       <c r="F21" s="19">
-        <f t="shared" si="3"/>
-        <v>-3.0114372035541237E-3</v>
+        <f t="shared" si="5"/>
+        <v>-1.9041323040380043</v>
       </c>
       <c r="G21" s="19">
-        <f t="shared" si="3"/>
-        <v>-2.59217357804431E-4</v>
+        <f t="shared" si="5"/>
+        <v>-2.0759657957244677</v>
       </c>
       <c r="H21" s="19">
-        <f t="shared" si="3"/>
-        <v>1.269078585938388E-3</v>
+        <f t="shared" si="5"/>
+        <v>-2.2609874109263615</v>
       </c>
       <c r="I21" s="19">
-        <f t="shared" si="3"/>
-        <v>-1.0309732195352694E-3</v>
+        <f t="shared" si="5"/>
+        <v>-2.4661790973871724</v>
       </c>
       <c r="J21" s="19">
-        <f t="shared" si="3"/>
-        <v>1.177144207535008E-3</v>
+        <f t="shared" si="5"/>
+        <v>-2.6861104513064156</v>
       </c>
       <c r="K21" s="19">
-        <f t="shared" si="3"/>
-        <v>4.1032464735479834E-4</v>
+        <f t="shared" si="5"/>
+        <v>-2.9269876484560555</v>
       </c>
       <c r="L21" s="19">
-        <f t="shared" si="3"/>
-        <v>-1.286733405386542E-3</v>
+        <f t="shared" si="5"/>
+        <v>-3.1930774346793385</v>
       </c>
       <c r="M21" s="19">
-        <f t="shared" si="3"/>
-        <v>3.5273396594348583E-4</v>
+        <f t="shared" si="5"/>
+        <v>-3.4797251781472625</v>
       </c>
       <c r="N21" s="19">
-        <f t="shared" si="3"/>
-        <v>7.4184171822366807E-5</v>
+        <f t="shared" si="5"/>
+        <v>-3.7927491686460826</v>
       </c>
       <c r="O21" s="20">
-        <f t="shared" si="3"/>
-        <v>0.81627775143837411</v>
+        <f t="shared" si="5"/>
+        <v>-1.8381916864608101</v>
       </c>
     </row>
   </sheetData>

--- a/part_A.xlsx
+++ b/part_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhild\Desktop\EPFL_progs\IntroFin\IF-case1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiago/Desktop/EPFL/MA/MA1/introduction_finance/IF-case1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669958EF-7AF0-4E1E-A5E1-E1302CFECEC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858E0E66-7CB9-FF4C-BC29-8EAD66A02FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{83F0B71E-83C5-FB4C-BC89-723A38B8AFA2}"/>
+    <workbookView xWindow="19320" yWindow="0" windowWidth="19080" windowHeight="21600" xr2:uid="{83F0B71E-83C5-FB4C-BC89-723A38B8AFA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -224,75 +224,15 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -305,18 +245,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -332,7 +268,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -630,21 +566,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B60BD62-163A-054D-A192-BB8876BE4E5C}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.84765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6484375" customWidth="1"/>
-    <col min="17" max="17" width="17.6484375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.5" customWidth="1"/>
-    <col min="19" max="19" width="12.6484375" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -691,7 +627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -739,7 +675,7 @@
       </c>
       <c r="R2" s="6"/>
     </row>
-    <row r="3" spans="1:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
@@ -787,7 +723,7 @@
       </c>
       <c r="R3" s="6"/>
     </row>
-    <row r="4" spans="1:18" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -848,33 +784,34 @@
         <v>13.11</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A6" t="s">
+    <row r="5" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>48.07</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A7" t="s">
+    <row r="7" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A8" t="s">
+    <row r="8" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <f>B6-B7</f>
         <v>-16.330000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="10" spans="1:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -921,7 +858,7 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -981,7 +918,7 @@
         <v>5.4947425741242837</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -989,107 +926,120 @@
         <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <f>$B8*(0.09^C1)</f>
+        <v>-1.4697000000000005</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <f t="shared" ref="D12:O12" si="2">$B8*(0.09^D1)</f>
+        <v>-0.13227300000000003</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-1.1904570000000003E-2</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-1.0714113000000003E-3</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-9.6427017000000017E-5</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-8.6784315300000004E-6</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-7.8105883769999999E-7</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-7.0295295393000001E-8</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-6.3265765853699998E-9</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-5.6939189268329996E-10</v>
       </c>
       <c r="M12" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-5.1245270341496993E-11</v>
       </c>
       <c r="N12" s="1">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-4.6120743307347287E-12</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+        <f t="shared" si="2"/>
+        <v>-4.1508668976612562E-13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" ref="B13:O13" si="2">B4+B10-B11-B12</f>
+        <f t="shared" ref="B13:O13" si="3">B4+B10-B11-B12</f>
         <v>1.5100000000000007</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="2"/>
-        <v>2.0380000000000007</v>
+        <f>C4+C10-C11-C12</f>
+        <v>3.5077000000000012</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="2"/>
-        <v>2.6007199999999999</v>
+        <f t="shared" si="3"/>
+        <v>2.732993</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="2"/>
-        <v>3.1979488000000003</v>
+        <f t="shared" si="3"/>
+        <v>3.2098533700000003</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="2"/>
-        <v>3.8594667520000003</v>
+        <f t="shared" si="3"/>
+        <v>3.8605381633000002</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="2"/>
-        <v>4.5750454220799988</v>
+        <f t="shared" si="3"/>
+        <v>4.5751418490969984</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="2"/>
-        <v>5.3044472389631974</v>
+        <f t="shared" si="3"/>
+        <v>5.3044559173947272</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="2"/>
-        <v>6.1174251285217283</v>
+        <f t="shared" si="3"/>
+        <v>6.1174259095805663</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="2"/>
-        <v>6.9637221336625945</v>
+        <f t="shared" si="3"/>
+        <v>6.9637222039578903</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="2"/>
-        <v>7.863071019009098</v>
+        <f t="shared" si="3"/>
+        <v>7.8630710253356746</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="2"/>
-        <v>8.6751938597694611</v>
+        <f t="shared" si="3"/>
+        <v>8.6751938603388528</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="2"/>
-        <v>9.8098016141602429</v>
+        <f t="shared" si="3"/>
+        <v>9.809801614211489</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="2"/>
-        <v>10.836593678726651</v>
+        <f t="shared" si="3"/>
+        <v>10.836593678731262</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="2"/>
-        <v>11.275257425875715</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.6">
+        <f t="shared" si="3"/>
+        <v>11.275257425876131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1104,7 +1054,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -1121,246 +1071,246 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="15">
         <v>84.2</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="14">
         <v>91.78</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="14">
         <v>100.038</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="14">
         <v>109.02800000000001</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="14">
         <v>118.846</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="14">
         <v>129.55000000000001</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="14">
         <v>141.208</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="14">
         <v>153.92400000000001</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="14">
         <v>167.774</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="14">
         <v>182.86600000000001</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="14">
         <v>199.33</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="14">
         <v>217.27199999999999</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="1">
         <v>236.828</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="1">
         <v>246.30600000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="2">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="C18" s="16">
-        <f t="shared" ref="C18:O18" si="3">C17/B17</f>
+      <c r="C18" s="1">
+        <f t="shared" ref="C18:O18" si="4">C17/B17</f>
         <v>1.090023752969121</v>
       </c>
-      <c r="D18" s="16">
-        <f t="shared" si="3"/>
+      <c r="D18" s="1">
+        <f t="shared" si="4"/>
         <v>1.0899760296360863</v>
       </c>
-      <c r="E18" s="16">
-        <f t="shared" si="3"/>
+      <c r="E18" s="1">
+        <f t="shared" si="4"/>
         <v>1.089865850976629</v>
       </c>
-      <c r="F18" s="16">
-        <f t="shared" si="3"/>
+      <c r="F18" s="1">
+        <f t="shared" si="4"/>
         <v>1.0900502623179367</v>
       </c>
-      <c r="G18" s="16">
-        <f t="shared" si="3"/>
+      <c r="G18" s="1">
+        <f t="shared" si="4"/>
         <v>1.0900661360079431</v>
       </c>
-      <c r="H18" s="16">
-        <f t="shared" si="3"/>
+      <c r="H18" s="1">
+        <f t="shared" si="4"/>
         <v>1.089988421458896</v>
       </c>
-      <c r="I18" s="16">
-        <f t="shared" si="3"/>
+      <c r="I18" s="1">
+        <f t="shared" si="4"/>
         <v>1.0900515551526826</v>
       </c>
-      <c r="J18" s="16">
-        <f t="shared" si="3"/>
+      <c r="J18" s="1">
+        <f t="shared" si="4"/>
         <v>1.0899794703879837</v>
       </c>
-      <c r="K18" s="16">
-        <f t="shared" si="3"/>
+      <c r="K18" s="1">
+        <f t="shared" si="4"/>
         <v>1.0899543433428303</v>
       </c>
-      <c r="L18" s="16">
-        <f t="shared" si="3"/>
+      <c r="L18" s="1">
+        <f t="shared" si="4"/>
         <v>1.0900331390198288</v>
       </c>
-      <c r="M18" s="16">
-        <f t="shared" si="3"/>
+      <c r="M18" s="1">
+        <f t="shared" si="4"/>
         <v>1.0900115386544924</v>
       </c>
-      <c r="N18" s="16">
-        <f t="shared" si="3"/>
+      <c r="N18" s="1">
+        <f t="shared" si="4"/>
         <v>1.0900069958393166</v>
       </c>
-      <c r="O18" s="17">
-        <f t="shared" si="3"/>
+      <c r="O18" s="1">
+        <f t="shared" si="4"/>
         <v>1.0400206056716268</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="17"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A20" s="15" t="s">
+    <row r="19" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+    </row>
+    <row r="20" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="2">
         <v>-16.329999999999998</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="1">
         <f>B20*C18</f>
         <v>-17.800087885985743</v>
       </c>
-      <c r="D20" s="16">
-        <f t="shared" ref="D20:O20" si="4">C20*D18</f>
+      <c r="D20" s="1">
+        <f t="shared" ref="D20:O20" si="5">C20*D18</f>
         <v>-19.401669121140138</v>
       </c>
-      <c r="E20" s="16">
-        <f t="shared" si="4"/>
+      <c r="E20" s="1">
+        <f t="shared" si="5"/>
         <v>-21.145216627078383</v>
       </c>
-      <c r="F20" s="16">
-        <f t="shared" si="4"/>
+      <c r="F20" s="1">
+        <f t="shared" si="5"/>
         <v>-23.049348931116388</v>
       </c>
-      <c r="G20" s="16">
-        <f t="shared" si="4"/>
+      <c r="G20" s="1">
+        <f t="shared" si="5"/>
         <v>-25.125314726840855</v>
       </c>
-      <c r="H20" s="16">
-        <f t="shared" si="4"/>
+      <c r="H20" s="1">
+        <f t="shared" si="5"/>
         <v>-27.386302137767217</v>
       </c>
-      <c r="I20" s="16">
-        <f t="shared" si="4"/>
+      <c r="I20" s="1">
+        <f t="shared" si="5"/>
         <v>-29.852481235154389</v>
       </c>
-      <c r="J20" s="16">
-        <f t="shared" si="4"/>
+      <c r="J20" s="1">
+        <f t="shared" si="5"/>
         <v>-32.538591686460805</v>
       </c>
-      <c r="K20" s="16">
-        <f t="shared" si="4"/>
+      <c r="K20" s="1">
+        <f t="shared" si="5"/>
         <v>-35.46557933491686</v>
       </c>
-      <c r="L20" s="16">
-        <f t="shared" si="4"/>
+      <c r="L20" s="1">
+        <f t="shared" si="5"/>
         <v>-38.658656769596199</v>
       </c>
-      <c r="M20" s="16">
-        <f t="shared" si="4"/>
+      <c r="M20" s="1">
+        <f t="shared" si="5"/>
         <v>-42.138381947743461</v>
       </c>
-      <c r="N20" s="16">
-        <f t="shared" si="4"/>
+      <c r="N20" s="1">
+        <f t="shared" si="5"/>
         <v>-45.931131116389544</v>
       </c>
-      <c r="O20" s="16">
-        <f t="shared" si="4"/>
+      <c r="O20" s="1">
+        <f t="shared" si="5"/>
         <v>-47.769322802850354</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19">
+      <c r="B21" s="2"/>
+      <c r="C21" s="1">
         <f>C20-B20</f>
         <v>-1.4700878859857447</v>
       </c>
-      <c r="D21" s="19">
-        <f t="shared" ref="D21:O21" si="5">D20-C20</f>
+      <c r="D21" s="1">
+        <f t="shared" ref="D21:O21" si="6">D20-C20</f>
         <v>-1.601581235154395</v>
       </c>
-      <c r="E21" s="19">
-        <f t="shared" si="5"/>
+      <c r="E21" s="1">
+        <f t="shared" si="6"/>
         <v>-1.7435475059382455</v>
       </c>
-      <c r="F21" s="19">
-        <f t="shared" si="5"/>
+      <c r="F21" s="1">
+        <f t="shared" si="6"/>
         <v>-1.9041323040380043</v>
       </c>
-      <c r="G21" s="19">
-        <f t="shared" si="5"/>
+      <c r="G21" s="1">
+        <f t="shared" si="6"/>
         <v>-2.0759657957244677</v>
       </c>
-      <c r="H21" s="19">
-        <f t="shared" si="5"/>
+      <c r="H21" s="1">
+        <f t="shared" si="6"/>
         <v>-2.2609874109263615</v>
       </c>
-      <c r="I21" s="19">
-        <f t="shared" si="5"/>
+      <c r="I21" s="1">
+        <f t="shared" si="6"/>
         <v>-2.4661790973871724</v>
       </c>
-      <c r="J21" s="19">
-        <f t="shared" si="5"/>
+      <c r="J21" s="1">
+        <f t="shared" si="6"/>
         <v>-2.6861104513064156</v>
       </c>
-      <c r="K21" s="19">
-        <f t="shared" si="5"/>
+      <c r="K21" s="1">
+        <f t="shared" si="6"/>
         <v>-2.9269876484560555</v>
       </c>
-      <c r="L21" s="19">
-        <f t="shared" si="5"/>
+      <c r="L21" s="1">
+        <f t="shared" si="6"/>
         <v>-3.1930774346793385</v>
       </c>
-      <c r="M21" s="19">
-        <f t="shared" si="5"/>
+      <c r="M21" s="1">
+        <f t="shared" si="6"/>
         <v>-3.4797251781472625</v>
       </c>
-      <c r="N21" s="19">
-        <f t="shared" si="5"/>
+      <c r="N21" s="1">
+        <f t="shared" si="6"/>
         <v>-3.7927491686460826</v>
       </c>
-      <c r="O21" s="20">
-        <f t="shared" si="5"/>
+      <c r="O21" s="1">
+        <f t="shared" si="6"/>
         <v>-1.8381916864608101</v>
       </c>
     </row>

--- a/part_A.xlsx
+++ b/part_A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiago/Desktop/EPFL/MA/MA1/introduction_finance/IF-case1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858E0E66-7CB9-FF4C-BC29-8EAD66A02FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AE5071-1B45-9E49-A8B7-A44126FC9F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19320" yWindow="0" windowWidth="19080" windowHeight="21600" xr2:uid="{83F0B71E-83C5-FB4C-BC89-723A38B8AFA2}"/>
+    <workbookView xWindow="19320" yWindow="500" windowWidth="19080" windowHeight="19600" xr2:uid="{83F0B71E-83C5-FB4C-BC89-723A38B8AFA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B60BD62-163A-054D-A192-BB8876BE4E5C}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="75" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
